--- a/script/Pr_temp_spreadsheets/05_00_ARC05_8.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_8.xlsx
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53de1097-5ec2-492c-bac9-13cd7a5f7bf8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b0a16cf7-57d5-46bb-a69e-77637b07c631}">
   <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -2775,7 +2775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60989559-0c0a-4f4e-ba3e-3fb0aec2096e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e902d1a0-1e5e-465b-be5a-49524c3d39fc}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
